--- a/dataBookYourDemo.xlsx
+++ b/dataBookYourDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugeesmac/Documents/Learning Autotest Projects/Sugee AutoTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3391089-2D46-C241-B75C-709D57BECA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB71A6C3-B7B5-4C4B-BB51-25EA8E8118FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="500" windowWidth="27180" windowHeight="16940" xr2:uid="{8AF2269F-1DED-CF41-9CE9-DC948AE8510C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Business Email</t>
   </si>
@@ -57,14 +57,35 @@
     <t>Having funnnnn</t>
   </si>
   <si>
-    <t xml:space="preserve">YOLO </t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +100,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,6 +138,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,46 +461,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07583DA-272B-7C47-B2DD-AA2066FFE4EB}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="59.5" customWidth="1"/>
     <col min="2" max="2" width="53.83203125" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>836228803</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
